--- a/biology/Botanique/Floralies_Internationales_-_France/Floralies_Internationales_-_France.xlsx
+++ b/biology/Botanique/Floralies_Internationales_-_France/Floralies_Internationales_-_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Floralies internationales - France constituent une manifestation ornementale et végétale longtemps organisée à Nantes.
@@ -513,7 +525,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Floralies Internationales - France sont organisées par le Comité des Floralies, association loi de 1901. Elles se déroulaient au parc des expositions de la Beaujoire, espace paysager situé au bord de l’Erdre et attenant au parc floral de la Beaujoire. Y sont exposées les créations et mises en scène paysagères conçues par les exposants. 
 Pour chaque édition, le Comité des Floralies associe un thème différent qui devient le fil rouge de l'évènement.  
@@ -546,7 +560,9 @@
           <t>Dates clés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1943 : création du Comité des Floralies
 1956 : 1re édition au palais du Champ de Mars à Nantes, inaugurée par André Dulin, secrétaire d'État à l'Agriculture.
@@ -589,13 +605,15 @@
           <t>Le Comité des Floralies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1943, le Comité des Floralies réunit des associations et organismes professionnels représentant le monde du végétal.  
 Le Comité des Floralies est membre fondateur de l'Association of International Floralies.
-L'association connaît une crise interne majeure en 2019, marquée par des démissions, sur fond d'opacité financière. L'association ne publie pas ses comptes ; elle a par ailleurs investi dans des immeubles de bureaux à Nantes[1]. 
-L'association Comité des Floralies refusant de fournir des documents comptables précis, la métropole nantaise gèle une subvention de 200 000 euros[2]. 
-Le Comité des Floralies signe en octobre 2021 une convention avec le conseil départemental de Vendée. La convention prévoit qu’après 12 éditions organisées à Nantes, celle de 2024 se tiendrait au domaine de la Chabotterie, dans la commune de Saint-Sulpice-le-Verdon, en Vendée. L'aide publique financière du département vendéen, qui reste à chiffrer, semble conséquente[2]. 
+L'association connaît une crise interne majeure en 2019, marquée par des démissions, sur fond d'opacité financière. L'association ne publie pas ses comptes ; elle a par ailleurs investi dans des immeubles de bureaux à Nantes. 
+L'association Comité des Floralies refusant de fournir des documents comptables précis, la métropole nantaise gèle une subvention de 200 000 euros. 
+Le Comité des Floralies signe en octobre 2021 une convention avec le conseil départemental de Vendée. La convention prévoit qu’après 12 éditions organisées à Nantes, celle de 2024 se tiendrait au domaine de la Chabotterie, dans la commune de Saint-Sulpice-le-Verdon, en Vendée. L'aide publique financière du département vendéen, qui reste à chiffrer, semble conséquente. 
 </t>
         </is>
       </c>
